--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ABCDE/10/seed3/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ABCDE/10/seed3/result_data_KNN.xlsx
@@ -485,7 +485,7 @@
         <v>4.03</v>
       </c>
       <c r="C3" t="n">
-        <v>-12.03</v>
+        <v>-12.484</v>
       </c>
       <c r="D3" t="n">
         <v>-8.949999999999999</v>
@@ -550,7 +550,7 @@
         <v>-22.82</v>
       </c>
       <c r="B7" t="n">
-        <v>5.572</v>
+        <v>5.525</v>
       </c>
       <c r="C7" t="n">
         <v>-11.52</v>
@@ -598,7 +598,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-20.698</v>
+        <v>-21.252</v>
       </c>
       <c r="B10" t="n">
         <v>6.17</v>
@@ -607,7 +607,7 @@
         <v>-12.45</v>
       </c>
       <c r="D10" t="n">
-        <v>-7.462000000000001</v>
+        <v>-7.926</v>
       </c>
       <c r="E10" t="n">
         <v>15.84</v>
@@ -632,7 +632,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-21.576</v>
+        <v>-21.515</v>
       </c>
       <c r="B12" t="n">
         <v>4.54</v>
@@ -675,7 +675,7 @@
         <v>-11.3</v>
       </c>
       <c r="D14" t="n">
-        <v>-7.835999999999999</v>
+        <v>-7.637</v>
       </c>
       <c r="E14" t="n">
         <v>17.29</v>
@@ -686,7 +686,7 @@
         <v>-22.78</v>
       </c>
       <c r="B15" t="n">
-        <v>4.514</v>
+        <v>5.236000000000001</v>
       </c>
       <c r="C15" t="n">
         <v>-13.12</v>
@@ -712,7 +712,7 @@
         <v>-9.27</v>
       </c>
       <c r="E16" t="n">
-        <v>16.822</v>
+        <v>16.747</v>
       </c>
     </row>
     <row r="17">
@@ -734,13 +734,13 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-21.93</v>
+        <v>-21.866</v>
       </c>
       <c r="B18" t="n">
         <v>4.35</v>
       </c>
       <c r="C18" t="n">
-        <v>-11.334</v>
+        <v>-11.081</v>
       </c>
       <c r="D18" t="n">
         <v>-6.27</v>
@@ -757,7 +757,7 @@
         <v>11.01</v>
       </c>
       <c r="C19" t="n">
-        <v>-11.322</v>
+        <v>-12.051</v>
       </c>
       <c r="D19" t="n">
         <v>-7.9</v>
@@ -771,7 +771,7 @@
         <v>-19.14</v>
       </c>
       <c r="B20" t="n">
-        <v>8.026</v>
+        <v>7.217000000000001</v>
       </c>
       <c r="C20" t="n">
         <v>-14.88</v>
@@ -814,7 +814,7 @@
         <v>-6.8</v>
       </c>
       <c r="E22" t="n">
-        <v>16.486</v>
+        <v>16.581</v>
       </c>
     </row>
     <row r="23">
@@ -882,7 +882,7 @@
         <v>-9.31</v>
       </c>
       <c r="E26" t="n">
-        <v>16.808</v>
+        <v>16.753</v>
       </c>
     </row>
     <row r="27">
@@ -893,7 +893,7 @@
         <v>5.54</v>
       </c>
       <c r="C27" t="n">
-        <v>-13.996</v>
+        <v>-13.301</v>
       </c>
       <c r="D27" t="n">
         <v>-8.550000000000001</v>
@@ -924,7 +924,7 @@
         <v>-21.48</v>
       </c>
       <c r="B29" t="n">
-        <v>5.226</v>
+        <v>5.626</v>
       </c>
       <c r="C29" t="n">
         <v>-11.02</v>
@@ -941,7 +941,7 @@
         <v>-21.31</v>
       </c>
       <c r="B30" t="n">
-        <v>4.518</v>
+        <v>5.131</v>
       </c>
       <c r="C30" t="n">
         <v>-10.71</v>
@@ -958,7 +958,7 @@
         <v>-21.76</v>
       </c>
       <c r="B31" t="n">
-        <v>5.973999999999999</v>
+        <v>6.114</v>
       </c>
       <c r="C31" t="n">
         <v>-11.3</v>
@@ -981,7 +981,7 @@
         <v>-10.55</v>
       </c>
       <c r="D32" t="n">
-        <v>-8.767999999999999</v>
+        <v>-8.274000000000001</v>
       </c>
       <c r="E32" t="n">
         <v>15.18</v>
@@ -1032,7 +1032,7 @@
         <v>-13.02</v>
       </c>
       <c r="D35" t="n">
-        <v>-7.122</v>
+        <v>-7.387</v>
       </c>
       <c r="E35" t="n">
         <v>15.78</v>
@@ -1057,7 +1057,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>-19.528</v>
+        <v>-20.02</v>
       </c>
       <c r="B37" t="n">
         <v>9.41</v>
@@ -1111,7 +1111,7 @@
         <v>-19.21</v>
       </c>
       <c r="B40" t="n">
-        <v>8.888</v>
+        <v>9.208</v>
       </c>
       <c r="C40" t="n">
         <v>-12.94</v>
@@ -1148,7 +1148,7 @@
         <v>9.16</v>
       </c>
       <c r="C42" t="n">
-        <v>-12.022</v>
+        <v>-12.328</v>
       </c>
       <c r="D42" t="n">
         <v>-7.75</v>
@@ -1168,7 +1168,7 @@
         <v>-11.77</v>
       </c>
       <c r="D43" t="n">
-        <v>-9.187999999999999</v>
+        <v>-8.375</v>
       </c>
       <c r="E43" t="n">
         <v>16.64</v>
@@ -1182,13 +1182,13 @@
         <v>10.98</v>
       </c>
       <c r="C44" t="n">
-        <v>-13.302</v>
+        <v>-12.536</v>
       </c>
       <c r="D44" t="n">
         <v>-8.220000000000001</v>
       </c>
       <c r="E44" t="n">
-        <v>17.048</v>
+        <v>16.612</v>
       </c>
     </row>
     <row r="45">
@@ -1233,7 +1233,7 @@
         <v>6.74</v>
       </c>
       <c r="C47" t="n">
-        <v>-12.474</v>
+        <v>-12.24</v>
       </c>
       <c r="D47" t="n">
         <v>-8.5</v>
@@ -1270,7 +1270,7 @@
         <v>-12.11</v>
       </c>
       <c r="D49" t="n">
-        <v>-7.525999999999999</v>
+        <v>-7.997000000000002</v>
       </c>
       <c r="E49" t="n">
         <v>16.49</v>
@@ -1358,12 +1358,12 @@
         <v>-8.01</v>
       </c>
       <c r="E54" t="n">
-        <v>16.56</v>
+        <v>16.686</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-21.576</v>
+        <v>-21.875</v>
       </c>
       <c r="B55" t="n">
         <v>5.38</v>
@@ -1389,7 +1389,7 @@
         <v>-13.63</v>
       </c>
       <c r="D56" t="n">
-        <v>-7.752</v>
+        <v>-8.119</v>
       </c>
       <c r="E56" t="n">
         <v>16.79</v>
@@ -1420,7 +1420,7 @@
         <v>3.7</v>
       </c>
       <c r="C58" t="n">
-        <v>-13.354</v>
+        <v>-12.575</v>
       </c>
       <c r="D58" t="n">
         <v>-7.51</v>
@@ -1511,7 +1511,7 @@
         <v>-7.14</v>
       </c>
       <c r="E63" t="n">
-        <v>17.88</v>
+        <v>17.565</v>
       </c>
     </row>
     <row r="64">
@@ -1584,10 +1584,10 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>-21.734</v>
+        <v>-21.581</v>
       </c>
       <c r="B68" t="n">
-        <v>4.548</v>
+        <v>5.242</v>
       </c>
       <c r="C68" t="n">
         <v>-9.98</v>
@@ -1610,7 +1610,7 @@
         <v>-10.8</v>
       </c>
       <c r="D69" t="n">
-        <v>-6.994</v>
+        <v>-6.812</v>
       </c>
       <c r="E69" t="n">
         <v>17.51</v>
@@ -1675,7 +1675,7 @@
         <v>10.24</v>
       </c>
       <c r="C73" t="n">
-        <v>-12.554</v>
+        <v>-12.77</v>
       </c>
       <c r="D73" t="n">
         <v>-6.42</v>
@@ -1723,7 +1723,7 @@
         <v>-20.94</v>
       </c>
       <c r="B76" t="n">
-        <v>6.004</v>
+        <v>6.175</v>
       </c>
       <c r="C76" t="n">
         <v>-15.06</v>
@@ -1737,7 +1737,7 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>-20.278</v>
+        <v>-20.252</v>
       </c>
       <c r="B77" t="n">
         <v>10.09</v>
@@ -1754,7 +1754,7 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>-19.688</v>
+        <v>-19.533</v>
       </c>
       <c r="B78" t="n">
         <v>9.640000000000001</v>
@@ -1814,7 +1814,7 @@
         <v>-11.36</v>
       </c>
       <c r="D81" t="n">
-        <v>-7.835999999999999</v>
+        <v>-7.342000000000001</v>
       </c>
       <c r="E81" t="n">
         <v>17.6</v>
@@ -1902,7 +1902,7 @@
         <v>-8.17</v>
       </c>
       <c r="E86" t="n">
-        <v>16.614</v>
+        <v>16.294</v>
       </c>
     </row>
     <row r="87">
@@ -1910,7 +1910,7 @@
         <v>-23.05</v>
       </c>
       <c r="B87" t="n">
-        <v>4.522</v>
+        <v>5.140000000000001</v>
       </c>
       <c r="C87" t="n">
         <v>-15.19</v>
@@ -1927,7 +1927,7 @@
         <v>-22.69</v>
       </c>
       <c r="B88" t="n">
-        <v>4.48</v>
+        <v>5.948000000000001</v>
       </c>
       <c r="C88" t="n">
         <v>-14.65</v>
@@ -2001,7 +2001,7 @@
         <v>-9.49</v>
       </c>
       <c r="D92" t="n">
-        <v>-7.412000000000001</v>
+        <v>-7.154000000000001</v>
       </c>
       <c r="E92" t="n">
         <v>19.64</v>
@@ -2049,7 +2049,7 @@
         <v>6.4</v>
       </c>
       <c r="C95" t="n">
-        <v>-12.342</v>
+        <v>-11.663</v>
       </c>
       <c r="D95" t="n">
         <v>-6.44</v>
@@ -2063,7 +2063,7 @@
         <v>-20.86</v>
       </c>
       <c r="B96" t="n">
-        <v>5.182</v>
+        <v>6.368</v>
       </c>
       <c r="C96" t="n">
         <v>-10.59</v>
@@ -2072,7 +2072,7 @@
         <v>-8.529999999999999</v>
       </c>
       <c r="E96" t="n">
-        <v>16.67</v>
+        <v>16.666</v>
       </c>
     </row>
     <row r="97">
@@ -2097,7 +2097,7 @@
         <v>-21.08</v>
       </c>
       <c r="B98" t="n">
-        <v>5.362</v>
+        <v>5.556</v>
       </c>
       <c r="C98" t="n">
         <v>-13.95</v>
@@ -2148,10 +2148,10 @@
         <v>-19.85</v>
       </c>
       <c r="B101" t="n">
-        <v>7.928</v>
+        <v>8.659000000000001</v>
       </c>
       <c r="C101" t="n">
-        <v>-12.736</v>
+        <v>-12.643</v>
       </c>
       <c r="D101" t="n">
         <v>-7.34</v>
@@ -2165,7 +2165,7 @@
         <v>-20.36</v>
       </c>
       <c r="B102" t="n">
-        <v>7.998</v>
+        <v>7.739999999999999</v>
       </c>
       <c r="C102" t="n">
         <v>-12</v>
